--- a/01-系统设计/通信协议/XBOT510高端控制盒通讯协议201700407.xlsx
+++ b/01-系统设计/通信协议/XBOT510高端控制盒通讯协议201700407.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="302">
   <si>
     <t>XBOT510高端控制盒通信协议集</t>
   </si>
@@ -336,9 +336,6 @@
     <t>右摇杆X</t>
   </si>
   <si>
-    <t>行车控制</t>
-  </si>
-  <si>
     <t>右摇杆Y</t>
   </si>
   <si>
@@ -443,13 +440,6 @@
   </si>
   <si>
     <t>FeedData1</t>
-  </si>
-  <si>
-    <t> FeedIndex == 00：回传底盘旋转角度
- FeedIndex == 01：回传大臂俯仰角度
- FeedIndex == 02：回传小臂俯仰角度
- FeedIndex == 03：回传腕关节角度
- 无符号，单位：度，1 unit = 2度</t>
   </si>
   <si>
     <t>回传数据2</t>
@@ -478,13 +468,7 @@
  无符号，单位：度，1 unit = 2度</t>
   </si>
   <si>
-    <t>回传数据4</t>
-  </si>
-  <si>
     <t>FeedData4</t>
-  </si>
-  <si>
-    <t>回传数据5</t>
   </si>
   <si>
     <t>FeedData5</t>
@@ -1517,14 +1501,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>A5 30 00 00 00 00 00 05 00 00 00 00 00 00 DA</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5 30 00 00 00 00 00 09 00 00 00 00 00 00 DE</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>手臂速度加，Shift按下</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1575,10 +1551,6 @@
   </si>
   <si>
     <t>控制基板STM32-&gt;4412核心板   机器人数据</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5 10 80 00 00 00 00 00 80 00 00 00 00 00 B5</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1607,6 +1579,79 @@
   </si>
   <si>
     <t>A5 10 80 00 00 00 00 00 00 80 00 00 00 00 B5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 30 00 00 00 00 00 09 00 00 00 00 00 00 DE</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 30 00 00 00 00 00 05 00 00 00 00 00 00 DA</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>回传数据5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>和程序一致</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据程序：“回传数据5”应该是电池电压。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>回传数据4</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据程序：“回传数据4”是摆臂模式控制等</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t> FeedIndex == 00：回传底盘旋转角度
+ FeedIndex == 01：回传大臂俯仰角度
+ FeedIndex == 02：回传小臂俯仰角度
+ FeedIndex == 03：回传腕关节角度
+ 无符号，单位：度，1 unit = 2度</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大臂俯仰角度=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x77</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 10 81 00 00 77 00 00 00 00 00 00 00 00 AD</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>行车控制速度控制：该值会在界面显示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 30 00 00 00 00 40 00 00 00 00 00 00 00 15</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开照明灯</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2120,7 +2165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2277,6 +2322,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2301,6 +2358,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2310,15 +2400,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2331,33 +2412,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2373,29 +2436,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2718,20 +2766,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="38" t="s">
@@ -2773,7 +2821,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="56" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="44" t="s">
@@ -2790,21 +2838,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="53"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="7"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="7"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
@@ -2852,10 +2900,10 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2874,15 +2922,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
+      <c r="A1" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -2929,7 +2977,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="71">
+      <c r="A4" s="67">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2947,12 +2995,12 @@
       <c r="F4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="76" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="72"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
@@ -2968,532 +3016,532 @@
       <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="62"/>
+      <c r="G5" s="77"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="76">
+      <c r="A6" s="69">
         <v>3</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="70">
+      <c r="D6" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="71">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="78" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="76"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="66"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="66"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="76"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
       <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="66"/>
+      <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="76"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="66"/>
+      <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="76"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="66"/>
+      <c r="G11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="76"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="66"/>
+      <c r="G12" s="78"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="76"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="66"/>
+      <c r="G13" s="78"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="76">
+      <c r="A14" s="69">
         <v>4</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="70">
+      <c r="D14" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="71">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="78" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="76"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="66"/>
+      <c r="G15" s="78"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="76"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="66"/>
+      <c r="G16" s="78"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="76"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="66"/>
+      <c r="G17" s="78"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="76"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="66"/>
+      <c r="G18" s="78"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="76"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
       <c r="F19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="66"/>
+      <c r="G19" s="78"/>
     </row>
     <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="76"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="66"/>
+      <c r="G20" s="78"/>
     </row>
     <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="76"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
       <c r="F21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="66"/>
+      <c r="G21" s="78"/>
     </row>
     <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="71">
+      <c r="A22" s="67">
         <v>5</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="63">
+      <c r="D22" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="72">
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="79" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="77"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
       <c r="F23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="68"/>
+      <c r="G23" s="80"/>
     </row>
     <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="77"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
       <c r="F24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="68"/>
+      <c r="G24" s="80"/>
     </row>
     <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="77"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
       <c r="F25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="68"/>
+      <c r="G25" s="80"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="77"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="68"/>
+      <c r="G26" s="80"/>
     </row>
     <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="69"/>
+      <c r="G27" s="81"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="71">
+      <c r="A28" s="67">
         <v>6</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="63">
+      <c r="D28" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="72">
         <v>1</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="67" t="s">
+      <c r="G28" s="79" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="77"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
       <c r="F29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="68"/>
+      <c r="G29" s="80"/>
     </row>
     <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="77"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
       <c r="F30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="68"/>
+      <c r="G30" s="80"/>
     </row>
     <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="77"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
       <c r="F31" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="68"/>
+      <c r="G31" s="80"/>
     </row>
     <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="77"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
       <c r="F32" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="68"/>
+      <c r="G32" s="80"/>
     </row>
     <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
       <c r="F33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="69"/>
+      <c r="G33" s="81"/>
     </row>
     <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="71">
+      <c r="A34" s="67">
         <v>7</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="63">
+      <c r="D34" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="72">
         <v>1</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="67" t="s">
+      <c r="G34" s="79" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="77"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
       <c r="F35" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="68"/>
+      <c r="G35" s="80"/>
     </row>
     <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="77"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
       <c r="F36" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="68"/>
+      <c r="G36" s="80"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="77"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
       <c r="F37" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="68"/>
+      <c r="G37" s="80"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="77"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
       <c r="F38" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="68"/>
+      <c r="G38" s="80"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="77"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
       <c r="F39" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="68"/>
+      <c r="G39" s="80"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="77"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
       <c r="F40" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="68"/>
+      <c r="G40" s="80"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="72"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
       <c r="F41" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G41" s="69"/>
+      <c r="G41" s="81"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="71">
+      <c r="A42" s="67">
         <v>8</v>
       </c>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="63">
+      <c r="D42" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="72">
         <v>1</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G42" s="88" t="s">
-        <v>275</v>
+      <c r="G42" s="53" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="77"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
       <c r="F43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G43" s="88" t="s">
-        <v>276</v>
+      <c r="G43" s="53" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="77"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
       <c r="F44" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="88" t="s">
-        <v>277</v>
+      <c r="G44" s="53" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="77"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
       <c r="F45" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G45" s="88" t="s">
-        <v>278</v>
+      <c r="G45" s="53" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="77"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
       <c r="F46" s="7" t="s">
         <v>90</v>
       </c>
@@ -3502,11 +3550,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="77"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
+      <c r="A47" s="70"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
       <c r="F47" s="7" t="s">
         <v>92</v>
       </c>
@@ -3515,11 +3563,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="72"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
       <c r="F48" s="7" t="s">
         <v>94</v>
       </c>
@@ -3544,7 +3592,7 @@
       <c r="F49" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G49" s="60" t="s">
+      <c r="G49" s="75" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3567,7 +3615,7 @@
       <c r="F50" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G50" s="60"/>
+      <c r="G50" s="75"/>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
@@ -3576,8 +3624,8 @@
       <c r="B51" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="87" t="s">
-        <v>271</v>
+      <c r="C51" s="52" t="s">
+        <v>267</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>26</v>
@@ -3588,8 +3636,8 @@
       <c r="F51" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="60" t="s">
-        <v>102</v>
+      <c r="G51" s="75" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -3597,10 +3645,10 @@
         <v>12</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>26</v>
@@ -3611,17 +3659,17 @@
       <c r="F52" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G52" s="60"/>
+      <c r="G52" s="75"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>13</v>
       </c>
-      <c r="B53" s="87" t="s">
-        <v>269</v>
+      <c r="B53" s="52" t="s">
+        <v>265</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>26</v>
@@ -3633,7 +3681,7 @@
         <v>97</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -3641,10 +3689,10 @@
         <v>14</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>26</v>
@@ -3656,7 +3704,7 @@
         <v>97</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -3664,19 +3712,19 @@
         <v>15</v>
       </c>
       <c r="B55" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="D55" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="17">
+        <v>1</v>
+      </c>
+      <c r="F55" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="17">
-        <v>1</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>110</v>
       </c>
       <c r="G55" s="19"/>
     </row>
@@ -3726,15 +3774,15 @@
       <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="86" t="s">
-        <v>268</v>
-      </c>
-      <c r="B61" s="74"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="75"/>
+      <c r="A61" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="66"/>
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
@@ -3753,7 +3801,7 @@
         <v>21</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>23</v>
@@ -3781,7 +3829,7 @@
       <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="71">
+      <c r="A64" s="67">
         <v>2</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -3799,12 +3847,12 @@
       <c r="F64" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="61" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="72"/>
+      <c r="G64" s="76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="68"/>
       <c r="B65" s="6" t="s">
         <v>32</v>
       </c>
@@ -3818,66 +3866,66 @@
         <v>1</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G65" s="62"/>
-    </row>
-    <row r="66" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+      <c r="G65" s="77"/>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <v>3</v>
       </c>
       <c r="B66" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="D66" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+      <c r="F66" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="6">
-        <v>1</v>
-      </c>
-      <c r="F66" s="21" t="s">
+      <c r="G66" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G66" s="29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <v>4</v>
       </c>
       <c r="B67" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="D67" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
+      <c r="F67" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="6">
-        <v>1</v>
-      </c>
-      <c r="F67" s="21" t="s">
+      <c r="G67" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="G67" s="29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>5</v>
       </c>
       <c r="B68" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>124</v>
-      </c>
       <c r="D68" s="6" t="s">
         <v>26</v>
       </c>
@@ -3885,118 +3933,133 @@
         <v>1</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G68" s="30"/>
     </row>
-    <row r="69" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A69" s="13">
         <v>6</v>
       </c>
       <c r="B69" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>126</v>
-      </c>
       <c r="D69" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E69" s="13">
         <v>1</v>
       </c>
-      <c r="F69" s="31" t="s">
-        <v>127</v>
+      <c r="F69" s="55" t="s">
+        <v>295</v>
       </c>
       <c r="G69" s="31"/>
-    </row>
-    <row r="70" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="H69" s="92" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A70" s="13">
         <v>7</v>
       </c>
       <c r="B70" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="13">
+        <v>1</v>
+      </c>
+      <c r="F70" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="13">
-        <v>1</v>
-      </c>
-      <c r="F70" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="G70" s="31"/>
-    </row>
-    <row r="71" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="H70" s="92" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A71" s="13">
         <v>8</v>
       </c>
       <c r="B71" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="13">
+        <v>1</v>
+      </c>
+      <c r="F71" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="13">
-        <v>1</v>
-      </c>
-      <c r="F71" s="31" t="s">
-        <v>133</v>
-      </c>
       <c r="G71" s="31"/>
-    </row>
-    <row r="72" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="H71" s="92" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="66" x14ac:dyDescent="0.15">
       <c r="A72" s="13">
         <v>9</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>134</v>
+      <c r="B72" s="52" t="s">
+        <v>293</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
-      <c r="F72" s="91" t="s">
-        <v>292</v>
+      <c r="F72" s="55" t="s">
+        <v>285</v>
       </c>
       <c r="G72" s="31"/>
-    </row>
-    <row r="73" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="H72" s="92" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A73" s="13">
         <v>10</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>136</v>
+      <c r="B73" s="52" t="s">
+        <v>290</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G73" s="32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="H73" s="92" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <v>11</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>26</v>
@@ -4005,18 +4068,18 @@
         <v>1</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G74" s="32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>12</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6" t="s">
@@ -4026,16 +4089,16 @@
         <v>1</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G75" s="31"/>
     </row>
-    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>13</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6" t="s">
@@ -4045,16 +4108,16 @@
         <v>1</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G76" s="31"/>
     </row>
-    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
         <v>14</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6" t="s">
@@ -4064,32 +4127,32 @@
         <v>1</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G77" s="31"/>
     </row>
-    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
         <v>15</v>
       </c>
       <c r="B78" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="D78" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="17">
+        <v>1</v>
+      </c>
+      <c r="F78" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D78" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="17">
-        <v>1</v>
-      </c>
-      <c r="F78" s="24" t="s">
-        <v>110</v>
-      </c>
       <c r="G78" s="19"/>
     </row>
-    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -4098,12 +4161,12 @@
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
     </row>
-    <row r="80" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -4111,17 +4174,17 @@
         <v>1</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B82" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -4129,7 +4192,7 @@
         <v>2</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
@@ -4143,13 +4206,13 @@
         <v>28</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D85" s="34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E85" s="34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
@@ -4160,32 +4223,32 @@
         <v>32</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D86" s="34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F86" s="34" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G86" s="34"/>
     </row>
     <row r="87" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="20"/>
       <c r="B87" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
@@ -4195,12 +4258,39 @@
         <v>3</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G13"/>
+    <mergeCell ref="G14:G21"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="G34:G41"/>
+    <mergeCell ref="E6:E13"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="E34:E41"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B42:B48"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A61:G61"/>
     <mergeCell ref="A4:A5"/>
@@ -4217,33 +4307,6 @@
     <mergeCell ref="C34:C41"/>
     <mergeCell ref="C42:C48"/>
     <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G13"/>
-    <mergeCell ref="G14:G21"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="G34:G41"/>
-    <mergeCell ref="E6:E13"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E34:E41"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4279,15 +4342,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
+      <c r="A1" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -4334,7 +4397,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="71">
+      <c r="A4" s="67">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -4350,14 +4413,14 @@
         <v>1</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" s="78" t="s">
-        <v>163</v>
+        <v>158</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="72"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
@@ -4371,16 +4434,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" s="62"/>
+        <v>160</v>
+      </c>
+      <c r="G5" s="77"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -4390,10 +4453,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4401,7 +4464,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
@@ -4411,10 +4474,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4422,7 +4485,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
@@ -4432,10 +4495,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4443,7 +4506,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
@@ -4453,10 +4516,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4464,7 +4527,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
@@ -4474,10 +4537,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4485,7 +4548,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
@@ -4495,10 +4558,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4506,7 +4569,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
@@ -4516,10 +4579,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4527,7 +4590,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
@@ -4537,10 +4600,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4548,7 +4611,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
@@ -4558,10 +4621,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4569,7 +4632,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
@@ -4579,10 +4642,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4590,7 +4653,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
@@ -4600,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4611,7 +4674,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
@@ -4621,10 +4684,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4632,11 +4695,11 @@
         <v>15</v>
       </c>
       <c r="B18" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>109</v>
-      </c>
       <c r="D18" s="17" t="s">
         <v>26</v>
       </c>
@@ -4644,23 +4707,23 @@
         <v>1</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G18" s="19"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -4692,7 +4755,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4711,14 +4774,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
       <c r="A1" s="84" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
+        <v>188</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -4765,84 +4828,84 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="71">
+      <c r="A4" s="67">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="63">
+        <v>146</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="72">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="77"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+        <v>149</v>
+      </c>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="A6" s="70"/>
+      <c r="B6" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="A7" s="70"/>
+      <c r="B7" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A6" s="77"/>
-      <c r="B6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A7" s="77"/>
-      <c r="B7" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G7" s="80"/>
+      <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>26</v>
@@ -4851,10 +4914,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
@@ -4862,393 +4925,393 @@
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="67">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="72">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="87" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="68"/>
+      <c r="B11" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="88"/>
+    </row>
+    <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="70">
+        <v>6</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="73">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="71">
-        <v>5</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="63">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="81" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="68"/>
+      <c r="B13" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="88"/>
+    </row>
+    <row r="14" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="70">
+        <v>7</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="73">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="89" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="82"/>
-    </row>
-    <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="77">
-        <v>6</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="64">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G12" s="83" t="s">
+    <row r="15" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="68"/>
+      <c r="B15" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" s="88"/>
+    </row>
+    <row r="16" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="70">
+        <v>8</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="73">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="89" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="82"/>
-    </row>
-    <row r="14" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="77">
-        <v>7</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="64">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="83" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="7" t="s">
+    <row r="17" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="68"/>
+      <c r="B17" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="G15" s="82"/>
-    </row>
-    <row r="16" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="77">
-        <v>8</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="C17" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="64">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G16" s="83" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="82"/>
+      <c r="G17" s="88"/>
     </row>
     <row r="18" spans="1:7" ht="66" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>9</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="A19" s="67">
+        <v>10</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D19" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="72">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="G19" s="87" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="A20" s="68"/>
+      <c r="B20" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="C20" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G20" s="88"/>
+    </row>
+    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A21" s="70">
+        <v>11</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="73">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G21" s="89" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A19" s="71">
-        <v>10</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="63">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G19" s="81" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="7" t="s">
+    <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A22" s="70"/>
+      <c r="B22" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="G20" s="82"/>
-    </row>
-    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A21" s="77">
-        <v>11</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="C22" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="64">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="G22" s="89"/>
+    </row>
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A23" s="70"/>
+      <c r="B23" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="G21" s="83" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A22" s="77"/>
-      <c r="B22" s="13" t="s">
+      <c r="C23" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="7" t="s">
+      <c r="G23" s="89"/>
+    </row>
+    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A24" s="70"/>
+      <c r="B24" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="G22" s="83"/>
-    </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A23" s="77"/>
-      <c r="B23" s="13" t="s">
+      <c r="C24" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="7" t="s">
+      <c r="G24" s="89"/>
+    </row>
+    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A25" s="70"/>
+      <c r="B25" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="G23" s="83"/>
-    </row>
-    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A24" s="77"/>
-      <c r="B24" s="13" t="s">
+      <c r="C25" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="7" t="s">
+      <c r="G25" s="89"/>
+    </row>
+    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A26" s="70"/>
+      <c r="B26" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="G24" s="83"/>
-    </row>
-    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A25" s="77"/>
-      <c r="B25" s="13" t="s">
+      <c r="C26" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G25" s="83"/>
-    </row>
-    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A26" s="77"/>
-      <c r="B26" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G26" s="83"/>
+      <c r="G26" s="89"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="13"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" s="88"/>
+    </row>
+    <row r="28" spans="1:7" ht="198" x14ac:dyDescent="0.15">
+      <c r="A28" s="67">
+        <v>12</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="72">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G28" s="87" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A29" s="68"/>
+      <c r="B29" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="G27" s="82"/>
-    </row>
-    <row r="28" spans="1:7" ht="198" x14ac:dyDescent="0.15">
-      <c r="A28" s="71">
-        <v>12</v>
-      </c>
-      <c r="B28" s="13" t="s">
+      <c r="C29" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="D28" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="63">
-        <v>1</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G28" s="81" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="G29" s="83"/>
+      <c r="G29" s="89"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="16">
         <v>13</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>26</v>
@@ -5257,23 +5320,23 @@
         <v>1</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G30" s="19"/>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -5285,15 +5348,18 @@
     <row r="41" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="G28:G29"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A27"/>
@@ -5306,18 +5372,15 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D27"/>
     <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G27"/>
-    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5333,8 +5396,8 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5345,89 +5408,108 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="90" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="85"/>
+        <v>283</v>
+      </c>
+      <c r="B1" s="91"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="89" t="s">
-        <v>287</v>
+      <c r="C2" s="54" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="51" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>288</v>
+        <v>261</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="51" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>288</v>
+        <v>269</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="51" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>288</v>
+        <v>268</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="51" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>281</v>
+        <v>275</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="51" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B7" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="54" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="51" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>284</v>
+        <v>278</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="51" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>286</v>
+        <v>280</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
@@ -5453,55 +5535,63 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="90" t="s">
-        <v>290</v>
-      </c>
-      <c r="B23" s="85"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="B23" s="91"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="51" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+      <c r="C24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="51" t="s">
-        <v>294</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="C25" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>

--- a/01-系统设计/通信协议/XBOT510高端控制盒通讯协议201700407.xlsx
+++ b/01-系统设计/通信协议/XBOT510高端控制盒通讯协议201700407.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,15 @@
     <sheet name="调试记录" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'控制基板STM32-&gt;4412核心板'!$A$1:$H$88</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="308">
   <si>
     <t>XBOT510高端控制盒通信协议集</t>
   </si>
@@ -446,13 +449,6 @@
   </si>
   <si>
     <t>FeedData2</t>
-  </si>
-  <si>
-    <t> FeedIndex == 00：回传手爪旋转角度
- FeedIndex == 01：回传云台俯仰角度
- FeedIndex == 02：回传云台旋转角度
- FeedIndex == 03：回传摄像头俯仰角度
- 无符号，单位：度，1 unit = 2度</t>
   </si>
   <si>
     <t>回传数据3</t>
@@ -1383,10 +1379,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>A5 30 01 00 00 00 00 00 00 00 00 00 00 00 D6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>控制基板STM32-&gt;4412核心板：采集的机器人数据帧</t>
     </r>
@@ -1547,10 +1539,6 @@
   </si>
   <si>
     <t>控制基板STM32-&gt;4412核心板   按键数据</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制基板STM32-&gt;4412核心板   机器人数据</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1654,12 +1642,52 @@
     <t>打开照明灯</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t> FeedIndex == 00：回传手爪旋转角度
+ FeedIndex == 01：回传云台俯仰角度
+ FeedIndex == 02：回传云台旋转角度
+ FeedIndex == 03：回传摄像头俯仰角度
+ 无符号，单位：度，1 unit = 2度</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>云台俯仰角度=0x10</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 10 81 00 00 00 10 00 00 00 00 00 00 00 46</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 A0 00 00 00 00 00 00 00 0F 00 E0 80 00 B4</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制基板STM32-&gt;4412核心板   机器人数据</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>4412核心板-&gt;控制基板STM32  控制帧</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 30 01 00 00 00 00 00 00 00 00 00 00 00 D6</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  2  3  4  5  6  7  8  9  A  B  C  D  E  F</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>手抓抓持控制</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1790,6 +1818,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2165,7 +2201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2334,6 +2370,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2441,9 +2486,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2752,7 +2794,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2766,20 +2808,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="38" t="s">
@@ -2821,7 +2863,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="44" t="s">
@@ -2838,21 +2880,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="57"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="57"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="7"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="57"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="7"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
@@ -2902,8 +2944,8 @@
   </sheetPr>
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2922,15 +2964,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
+      <c r="A1" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -2977,7 +3019,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="67">
+      <c r="A4" s="70">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2995,12 +3037,12 @@
       <c r="F4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="79" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="68"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
@@ -3016,532 +3058,532 @@
       <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="77"/>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="69">
+      <c r="A6" s="72">
         <v>3</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="71">
+      <c r="D6" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="74">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="81" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="69"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="78"/>
+      <c r="G7" s="81"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="69"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="78"/>
+      <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="69"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="78"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="69"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
       <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="78"/>
+      <c r="G10" s="81"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="78"/>
+      <c r="G11" s="81"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="69"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="78"/>
+      <c r="G12" s="81"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="69"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="78"/>
+      <c r="G13" s="81"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="69">
+      <c r="A14" s="72">
         <v>4</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="71">
+      <c r="D14" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="74">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="78" t="s">
+      <c r="G14" s="81" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="69"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="78"/>
+      <c r="G15" s="81"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="69"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="81"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="69"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="78"/>
+      <c r="G17" s="81"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="78"/>
+      <c r="G18" s="81"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="69"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="78"/>
+      <c r="G19" s="81"/>
     </row>
     <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="69"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="78"/>
+      <c r="G20" s="81"/>
     </row>
     <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="69"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="78"/>
+      <c r="G21" s="81"/>
     </row>
     <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="67">
+      <c r="A22" s="70">
         <v>5</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="72">
+      <c r="D22" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="75">
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="79" t="s">
+      <c r="G22" s="82" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="70"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
       <c r="F23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="80"/>
+      <c r="G23" s="83"/>
     </row>
     <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="70"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="80"/>
+      <c r="G24" s="83"/>
     </row>
     <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="70"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
       <c r="F25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="80"/>
+      <c r="G25" s="83"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="70"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="80"/>
+      <c r="G26" s="83"/>
     </row>
     <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="68"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="81"/>
+      <c r="G27" s="84"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="67">
+      <c r="A28" s="70">
         <v>6</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="72">
+      <c r="D28" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="75">
         <v>1</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="79" t="s">
+      <c r="G28" s="82" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="70"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
       <c r="F29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="80"/>
+      <c r="G29" s="83"/>
     </row>
     <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="70"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="80"/>
+      <c r="G30" s="83"/>
     </row>
     <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="70"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
       <c r="F31" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="80"/>
+      <c r="G31" s="83"/>
     </row>
     <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="70"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="80"/>
+      <c r="G32" s="83"/>
     </row>
     <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="68"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
       <c r="F33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="81"/>
+      <c r="G33" s="84"/>
     </row>
     <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="67">
+      <c r="A34" s="70">
         <v>7</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="72">
+      <c r="D34" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="75">
         <v>1</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="79" t="s">
+      <c r="G34" s="82" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="70"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
       <c r="F35" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="80"/>
+      <c r="G35" s="83"/>
     </row>
     <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="70"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
       <c r="F36" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="80"/>
+      <c r="G36" s="83"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="70"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
       <c r="F37" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="80"/>
+      <c r="G37" s="83"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="70"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
       <c r="F38" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="80"/>
+      <c r="G38" s="83"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="70"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
       <c r="F39" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="80"/>
+      <c r="G39" s="83"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="70"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
       <c r="F40" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="80"/>
+      <c r="G40" s="83"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="68"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
       <c r="F41" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G41" s="81"/>
+      <c r="G41" s="84"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="67">
+      <c r="A42" s="70">
         <v>8</v>
       </c>
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="72" t="s">
+      <c r="C42" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="72">
+      <c r="D42" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="75">
         <v>1</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G42" s="53" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="70"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
       <c r="F43" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G43" s="53" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="70"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
       <c r="F44" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G44" s="53" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="70"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
       <c r="F45" s="7" t="s">
         <v>89</v>
       </c>
       <c r="G45" s="53" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="70"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
       <c r="F46" s="7" t="s">
         <v>90</v>
       </c>
@@ -3550,11 +3592,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="70"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
       <c r="F47" s="7" t="s">
         <v>92</v>
       </c>
@@ -3563,11 +3605,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="68"/>
-      <c r="B48" s="74"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
       <c r="F48" s="7" t="s">
         <v>94</v>
       </c>
@@ -3592,7 +3634,7 @@
       <c r="F49" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G49" s="75" t="s">
+      <c r="G49" s="78" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3615,7 +3657,7 @@
       <c r="F50" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G50" s="75"/>
+      <c r="G50" s="78"/>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
@@ -3625,7 +3667,7 @@
         <v>101</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>26</v>
@@ -3636,8 +3678,8 @@
       <c r="F51" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="75" t="s">
-        <v>299</v>
+      <c r="G51" s="78" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -3659,14 +3701,14 @@
       <c r="F52" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G52" s="75"/>
+      <c r="G52" s="78"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>13</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>105</v>
@@ -3774,15 +3816,15 @@
       <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="64" t="s">
-        <v>264</v>
-      </c>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="66"/>
+      <c r="A61" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="69"/>
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
@@ -3829,7 +3871,7 @@
       <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="67">
+      <c r="A64" s="70">
         <v>2</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -3847,12 +3889,12 @@
       <c r="F64" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="76" t="s">
+      <c r="G64" s="79" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="68"/>
+      <c r="A65" s="71"/>
       <c r="B65" s="6" t="s">
         <v>32</v>
       </c>
@@ -3868,7 +3910,7 @@
       <c r="F65" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G65" s="77"/>
+      <c r="G65" s="80"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
@@ -3954,11 +3996,11 @@
         <v>1</v>
       </c>
       <c r="F69" s="55" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G69" s="31"/>
-      <c r="H69" s="92" t="s">
-        <v>291</v>
+      <c r="H69" s="56" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="82.5" x14ac:dyDescent="0.15">
@@ -3977,12 +4019,12 @@
       <c r="E70" s="13">
         <v>1</v>
       </c>
-      <c r="F70" s="31" t="s">
-        <v>128</v>
+      <c r="F70" s="55" t="s">
+        <v>299</v>
       </c>
       <c r="G70" s="31"/>
-      <c r="H70" s="92" t="s">
-        <v>291</v>
+      <c r="H70" s="56" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="82.5" x14ac:dyDescent="0.15">
@@ -3990,23 +4032,23 @@
         <v>8</v>
       </c>
       <c r="B71" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="D71" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="13">
+        <v>1</v>
+      </c>
+      <c r="F71" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="13">
-        <v>1</v>
-      </c>
-      <c r="F71" s="31" t="s">
-        <v>131</v>
-      </c>
       <c r="G71" s="31"/>
-      <c r="H71" s="92" t="s">
-        <v>291</v>
+      <c r="H71" s="56" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="66" x14ac:dyDescent="0.15">
@@ -4014,19 +4056,19 @@
         <v>9</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="55" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G72" s="31"/>
-      <c r="H72" s="92" t="s">
-        <v>294</v>
+      <c r="H72" s="57" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="82.5" x14ac:dyDescent="0.15">
@@ -4034,21 +4076,21 @@
         <v>10</v>
       </c>
       <c r="B73" s="52" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="G73" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="G73" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="H73" s="92" t="s">
-        <v>292</v>
+      <c r="H73" s="57" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="115.5" x14ac:dyDescent="0.15">
@@ -4056,22 +4098,22 @@
         <v>11</v>
       </c>
       <c r="B74" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="D74" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1</v>
+      </c>
+      <c r="F74" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="6">
-        <v>1</v>
-      </c>
-      <c r="F74" s="31" t="s">
+      <c r="G74" s="32" t="s">
         <v>138</v>
-      </c>
-      <c r="G74" s="32" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -4079,7 +4121,7 @@
         <v>12</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6" t="s">
@@ -4098,7 +4140,7 @@
         <v>13</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6" t="s">
@@ -4117,7 +4159,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6" t="s">
@@ -4163,7 +4205,7 @@
     </row>
     <row r="80" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B80" s="33" t="s">
         <v>110</v>
@@ -4174,17 +4216,17 @@
         <v>1</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B82" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -4192,7 +4234,7 @@
         <v>2</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
@@ -4206,13 +4248,13 @@
         <v>28</v>
       </c>
       <c r="C85" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="D85" s="34" t="s">
+      <c r="E85" s="34" t="s">
         <v>147</v>
-      </c>
-      <c r="E85" s="34" t="s">
-        <v>148</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
@@ -4223,16 +4265,16 @@
         <v>32</v>
       </c>
       <c r="C86" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="D86" s="34" t="s">
+      <c r="E86" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="E86" s="34" t="s">
+      <c r="F86" s="34" t="s">
         <v>151</v>
-      </c>
-      <c r="F86" s="34" t="s">
-        <v>152</v>
       </c>
       <c r="G86" s="34"/>
     </row>
@@ -4242,13 +4284,13 @@
         <v>114</v>
       </c>
       <c r="C87" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D87" s="34" t="s">
+      <c r="E87" s="34" t="s">
         <v>154</v>
-      </c>
-      <c r="E87" s="34" t="s">
-        <v>155</v>
       </c>
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
@@ -4258,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -4311,7 +4353,7 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70763888888888904" right="0.70763888888888904" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" scale="29" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4323,8 +4365,8 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4342,15 +4384,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
+      <c r="A1" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -4397,7 +4439,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="67">
+      <c r="A4" s="70">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -4413,14 +4455,14 @@
         <v>1</v>
       </c>
       <c r="F4" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="83" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="68"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
@@ -4434,16 +4476,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="G5" s="77"/>
+        <v>159</v>
+      </c>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -4456,7 +4498,7 @@
         <v>120</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4464,7 +4506,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
@@ -4477,7 +4519,7 @@
         <v>120</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4485,7 +4527,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
@@ -4498,7 +4540,7 @@
         <v>120</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4506,7 +4548,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
@@ -4519,7 +4561,7 @@
         <v>120</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4527,7 +4569,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
@@ -4540,7 +4582,7 @@
         <v>120</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4548,7 +4590,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
@@ -4561,7 +4603,7 @@
         <v>120</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4569,7 +4611,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
@@ -4582,7 +4624,7 @@
         <v>120</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4590,7 +4632,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
@@ -4602,8 +4644,8 @@
       <c r="F13" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="21" t="s">
-        <v>176</v>
+      <c r="G13" s="58" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4611,7 +4653,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
@@ -4624,7 +4666,7 @@
         <v>120</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4632,7 +4674,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
@@ -4645,7 +4687,7 @@
         <v>120</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4653,7 +4695,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
@@ -4666,7 +4708,7 @@
         <v>120</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4674,7 +4716,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
@@ -4687,7 +4729,7 @@
         <v>120</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4707,23 +4749,23 @@
         <v>1</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G18" s="19"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -4742,7 +4784,7 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70763888888888904" right="0.70763888888888904" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" scale="29" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4754,8 +4796,8 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4773,15 +4815,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
+      <c r="A1" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -4828,96 +4870,96 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="67">
+      <c r="A4" s="70">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="72">
+        <v>145</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="75">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="70"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
+        <v>148</v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="A6" s="73"/>
+      <c r="B6" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="88" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="A7" s="73"/>
+      <c r="B7" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="85" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A7" s="70"/>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G7" s="86"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>198</v>
-      </c>
       <c r="G8" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.15">
@@ -4925,383 +4967,383 @@
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="70">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="67">
-        <v>5</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="75">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="72">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="90" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="71"/>
+      <c r="B11" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="G10" s="87" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="68"/>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="91"/>
+    </row>
+    <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="73">
+        <v>6</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="G11" s="88"/>
-    </row>
-    <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="70">
-        <v>6</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="76">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D12" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="73">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="92" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="71"/>
+      <c r="B13" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="G12" s="89" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="68"/>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="91"/>
+    </row>
+    <row r="14" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="73">
+        <v>7</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="G13" s="88"/>
-    </row>
-    <row r="14" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="70">
-        <v>7</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="76">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="73">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="92" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="71"/>
+      <c r="B15" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="G14" s="89" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="68"/>
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="91"/>
+    </row>
+    <row r="16" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="73">
+        <v>8</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="G15" s="88"/>
-    </row>
-    <row r="16" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="70">
-        <v>8</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="76">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D16" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="73">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="92" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="71"/>
+      <c r="B17" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="G16" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="68"/>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G17" s="88"/>
+      <c r="G17" s="91"/>
     </row>
     <row r="18" spans="1:7" ht="66" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>9</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="A19" s="70">
+        <v>10</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A19" s="67">
-        <v>10</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="75">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D19" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="72">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="90" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="A20" s="71"/>
+      <c r="B20" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="G19" s="87" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="91"/>
+    </row>
+    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A21" s="73">
+        <v>11</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="G20" s="88"/>
-    </row>
-    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A21" s="70">
-        <v>11</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="76">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="73">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="92" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A22" s="73"/>
+      <c r="B22" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="G21" s="89" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A22" s="70"/>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="92"/>
+    </row>
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A23" s="73"/>
+      <c r="B23" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="G22" s="89"/>
-    </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A23" s="70"/>
-      <c r="B23" s="13" t="s">
+      <c r="C23" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="92"/>
+    </row>
+    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A24" s="73"/>
+      <c r="B24" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="G23" s="89"/>
-    </row>
-    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A24" s="70"/>
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="92"/>
+    </row>
+    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A25" s="73"/>
+      <c r="B25" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="G24" s="89"/>
-    </row>
-    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A25" s="70"/>
-      <c r="B25" s="13" t="s">
+      <c r="C25" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="92"/>
+    </row>
+    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A26" s="73"/>
+      <c r="B26" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="G25" s="89"/>
-    </row>
-    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A26" s="70"/>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G26" s="89"/>
+      <c r="G26" s="92"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="68"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="13"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" s="91"/>
+    </row>
+    <row r="28" spans="1:7" ht="198" x14ac:dyDescent="0.15">
+      <c r="A28" s="70">
+        <v>12</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="G27" s="88"/>
-    </row>
-    <row r="28" spans="1:7" ht="198" x14ac:dyDescent="0.15">
-      <c r="A28" s="67">
-        <v>12</v>
-      </c>
-      <c r="B28" s="13" t="s">
+      <c r="C28" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="75">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D28" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="72">
-        <v>1</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="90" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A29" s="71"/>
+      <c r="B29" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="G28" s="87" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A29" s="68"/>
-      <c r="B29" s="14" t="s">
+      <c r="C29" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="G29" s="89"/>
+      <c r="G29" s="92"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="16">
@@ -5311,32 +5353,32 @@
         <v>107</v>
       </c>
       <c r="C30" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>258</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="17">
-        <v>1</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>259</v>
       </c>
       <c r="G30" s="19"/>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -5385,7 +5427,7 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70763888888888904" right="0.70763888888888904" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" scale="29" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5394,10 +5436,11 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5407,113 +5450,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" s="91"/>
+      <c r="A1" s="54" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="93" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="94"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="54" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>261</v>
-      </c>
       <c r="C3" s="54" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="51" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="51" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="51" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="51" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="51" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="51" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B9" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="54" t="s">
         <v>280</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>301</v>
+        <v>277</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>278</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
@@ -5560,49 +5604,72 @@
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="90" t="s">
-        <v>284</v>
-      </c>
-      <c r="B23" s="91"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="C24" t="s">
-        <v>297</v>
-      </c>
+      <c r="A24" s="93" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" s="94"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="51" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C25" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="93" t="s">
+        <v>304</v>
+      </c>
+      <c r="B37" s="94"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="54" t="s">
+        <v>302</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A23:B23"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01-系统设计/通信协议/XBOT510高端控制盒通讯协议201700407.xlsx
+++ b/01-系统设计/通信协议/XBOT510高端控制盒通讯协议201700407.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -2403,6 +2403,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2412,74 +2451,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2944,8 +2944,8 @@
   </sheetPr>
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2964,15 +2964,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="80" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3019,7 +3019,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="70">
+      <c r="A4" s="78">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -3037,12 +3037,12 @@
       <c r="F4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
@@ -3058,478 +3058,478 @@
       <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="80"/>
+      <c r="G5" s="69"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="72">
+      <c r="A6" s="83">
         <v>3</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="74">
+      <c r="D6" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="77">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="73" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="81"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="81"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="81"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="81"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="81"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="81"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="81"/>
+      <c r="G13" s="73"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="72">
+      <c r="A14" s="83">
         <v>4</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="74">
+      <c r="D14" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="77">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="81" t="s">
+      <c r="G14" s="73" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="81"/>
+      <c r="G15" s="73"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="81"/>
+      <c r="G16" s="73"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="81"/>
+      <c r="G17" s="73"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="81"/>
+      <c r="G18" s="73"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="81"/>
+      <c r="G19" s="73"/>
     </row>
     <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
       <c r="F20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="81"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
       <c r="F21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="81"/>
+      <c r="G21" s="73"/>
     </row>
     <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="70">
+      <c r="A22" s="78">
         <v>5</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="75">
+      <c r="D22" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="70">
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="82" t="s">
+      <c r="G22" s="74" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
       <c r="F23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="83"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
       <c r="F24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="83"/>
+      <c r="G24" s="75"/>
     </row>
     <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="73"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
       <c r="F25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="83"/>
+      <c r="G25" s="75"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="83"/>
+      <c r="G26" s="75"/>
     </row>
     <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="71"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="84"/>
+      <c r="G27" s="76"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="70">
+      <c r="A28" s="78">
         <v>6</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="75" t="s">
+      <c r="C28" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="75">
+      <c r="D28" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="70">
         <v>1</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="82" t="s">
+      <c r="G28" s="74" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="73"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
       <c r="F29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="83"/>
+      <c r="G29" s="75"/>
     </row>
     <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="83"/>
+      <c r="G30" s="75"/>
     </row>
     <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="73"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
       <c r="F31" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="83"/>
+      <c r="G31" s="75"/>
     </row>
     <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="83"/>
+      <c r="G32" s="75"/>
     </row>
     <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="71"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="84"/>
+      <c r="G33" s="76"/>
     </row>
     <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="70">
+      <c r="A34" s="78">
         <v>7</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="75">
+      <c r="D34" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="70">
         <v>1</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="82" t="s">
+      <c r="G34" s="74" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="73"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
       <c r="F35" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="83"/>
+      <c r="G35" s="75"/>
     </row>
     <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
       <c r="F36" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="83"/>
+      <c r="G36" s="75"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="73"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
       <c r="F37" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="83"/>
+      <c r="G37" s="75"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="73"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
       <c r="F38" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="83"/>
+      <c r="G38" s="75"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="73"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
       <c r="F39" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="83"/>
+      <c r="G39" s="75"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="73"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
       <c r="F40" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="83"/>
+      <c r="G40" s="75"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="71"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
       <c r="F41" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G41" s="84"/>
+      <c r="G41" s="76"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="70">
+      <c r="A42" s="78">
         <v>8</v>
       </c>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="75">
+      <c r="D42" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="70">
         <v>1</v>
       </c>
       <c r="F42" s="7" t="s">
@@ -3540,11 +3540,11 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="73"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
       <c r="F43" s="7" t="s">
         <v>87</v>
       </c>
@@ -3553,11 +3553,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
       <c r="F44" s="7" t="s">
         <v>88</v>
       </c>
@@ -3566,11 +3566,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="73"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
       <c r="F45" s="7" t="s">
         <v>89</v>
       </c>
@@ -3579,11 +3579,11 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="73"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
       <c r="F46" s="7" t="s">
         <v>90</v>
       </c>
@@ -3592,11 +3592,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="73"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
       <c r="F47" s="7" t="s">
         <v>92</v>
       </c>
@@ -3605,11 +3605,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="71"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
       <c r="F48" s="7" t="s">
         <v>94</v>
       </c>
@@ -3634,7 +3634,7 @@
       <c r="F49" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G49" s="78" t="s">
+      <c r="G49" s="67" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       <c r="F50" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G50" s="78"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
@@ -3678,7 +3678,7 @@
       <c r="F51" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="78" t="s">
+      <c r="G51" s="67" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       <c r="F52" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G52" s="78"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
@@ -3816,15 +3816,15 @@
       <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="67" t="s">
+      <c r="A61" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="B61" s="68"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="69"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="82"/>
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
@@ -3871,7 +3871,7 @@
       <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="70">
+      <c r="A64" s="78">
         <v>2</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -3889,12 +3889,12 @@
       <c r="F64" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="79" t="s">
+      <c r="G64" s="68" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="71"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="6" t="s">
         <v>32</v>
       </c>
@@ -3910,7 +3910,7 @@
       <c r="F65" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G65" s="80"/>
+      <c r="G65" s="69"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
@@ -4306,33 +4306,6 @@
     <row r="89" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G13"/>
-    <mergeCell ref="G14:G21"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="G34:G41"/>
-    <mergeCell ref="E6:E13"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E34:E41"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="B42:B48"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A61:G61"/>
     <mergeCell ref="A4:A5"/>
@@ -4349,6 +4322,33 @@
     <mergeCell ref="C34:C41"/>
     <mergeCell ref="C42:C48"/>
     <mergeCell ref="D6:D13"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G13"/>
+    <mergeCell ref="G14:G21"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="G34:G41"/>
+    <mergeCell ref="E6:E13"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="E34:E41"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4387,12 +4387,12 @@
       <c r="A1" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -4439,7 +4439,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="70">
+      <c r="A4" s="78">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -4462,7 +4462,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
@@ -4478,7 +4478,7 @@
       <c r="F5" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="80"/>
+      <c r="G5" s="69"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
@@ -4796,8 +4796,8 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4815,15 +4815,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -4870,7 +4870,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="70">
+      <c r="A4" s="78">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -4879,10 +4879,10 @@
       <c r="C4" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="75">
+      <c r="D4" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="70">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -4891,15 +4891,15 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="73"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="7" t="s">
         <v>189</v>
       </c>
@@ -4908,36 +4908,36 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="87" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A7" s="73"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="11" t="s">
         <v>193</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="89"/>
+      <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
@@ -4986,7 +4986,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="70">
+      <c r="A10" s="78">
         <v>5</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -4995,36 +4995,36 @@
       <c r="C10" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="75">
+      <c r="D10" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="70">
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G10" s="90" t="s">
+      <c r="G10" s="89" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="71"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G11" s="91"/>
+      <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="73">
+      <c r="A12" s="84">
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -5033,36 +5033,36 @@
       <c r="C12" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D12" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="76">
+      <c r="D12" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="71">
         <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G12" s="92" t="s">
+      <c r="G12" s="91" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="71"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G13" s="91"/>
+      <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="73">
+      <c r="A14" s="84">
         <v>7</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -5071,36 +5071,36 @@
       <c r="C14" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D14" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="76">
+      <c r="D14" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="71">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G14" s="92" t="s">
+      <c r="G14" s="91" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="71"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="13" t="s">
         <v>215</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G15" s="91"/>
+      <c r="G15" s="90"/>
     </row>
     <row r="16" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="73">
+      <c r="A16" s="84">
         <v>8</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -5109,33 +5109,33 @@
       <c r="C16" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="76">
+      <c r="D16" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="71">
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G16" s="92" t="s">
+      <c r="G16" s="91" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="71"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="13" t="s">
         <v>221</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G17" s="91"/>
+      <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" ht="66" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
@@ -5161,7 +5161,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A19" s="70">
+      <c r="A19" s="78">
         <v>10</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -5170,36 +5170,36 @@
       <c r="C19" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D19" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="75">
+      <c r="D19" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="70">
         <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G19" s="90" t="s">
+      <c r="G19" s="89" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A20" s="71"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="13" t="s">
         <v>230</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
       <c r="F20" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G20" s="91"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A21" s="73">
+      <c r="A21" s="84">
         <v>11</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -5208,107 +5208,107 @@
       <c r="C21" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="76">
+      <c r="D21" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="71">
         <v>1</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G21" s="92" t="s">
+      <c r="G21" s="91" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G22" s="92"/>
+      <c r="G22" s="91"/>
     </row>
     <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="13" t="s">
         <v>238</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
       <c r="F23" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G23" s="92"/>
+      <c r="G23" s="91"/>
     </row>
     <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="13" t="s">
         <v>241</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
       <c r="F24" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G24" s="92"/>
+      <c r="G24" s="91"/>
     </row>
     <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A25" s="73"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="13" t="s">
         <v>244</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
       <c r="F25" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G25" s="92"/>
+      <c r="G25" s="91"/>
     </row>
     <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="13" t="s">
         <v>247</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G26" s="92"/>
+      <c r="G26" s="91"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="71"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="13"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G27" s="91"/>
+      <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:7" ht="198" x14ac:dyDescent="0.15">
-      <c r="A28" s="70">
+      <c r="A28" s="78">
         <v>12</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -5317,33 +5317,33 @@
       <c r="C28" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D28" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="75">
+      <c r="D28" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="70">
         <v>1</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G28" s="90" t="s">
+      <c r="G28" s="89" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A29" s="71"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="14" t="s">
         <v>254</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
       <c r="F29" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="G29" s="92"/>
+      <c r="G29" s="91"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="16">
@@ -5390,6 +5390,27 @@
     <row r="41" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="D28:D29"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E21:E27"/>
@@ -5402,27 +5423,6 @@
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G21:G27"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/01-系统设计/通信协议/XBOT510高端控制盒通讯协议201700407.xlsx
+++ b/01-系统设计/通信协议/XBOT510高端控制盒通讯协议201700407.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="316">
   <si>
     <t>XBOT510高端控制盒通信协议集</t>
   </si>
@@ -1667,19 +1667,47 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>A5 30 01 00 00 00 00 00 00 00 00 00 00 00 D6</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  2  3  4  5  6  7  8  9  A  B  C  D  E  F</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>手抓抓持控制</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>4412核心板-&gt;控制基板STM32  控制帧</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>A5 30 01 00 00 00 00 00 00 00 00 00 00 00 D6</t>
+    <t>机器人-&gt;控制器</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>1  2  3  4  5  6  7  8  9  A  B  C  D  E  F</t>
+    <t>A5 80 00 00 00 B2 00 88 00 00 00 00 5F</t>
+  </si>
+  <si>
+    <t>A5 81 00 00 63 5A 6E 00 00 00 00 00 51</t>
+  </si>
+  <si>
+    <t>A5 82 00 00 4C 1A 00 00 00 00 00 00 8D</t>
+  </si>
+  <si>
+    <t>A5 83 00 00 08 00 88 00 00 00 00 00 B8</t>
+  </si>
+  <si>
+    <t>A5 82 00 00 4C 1A 00 00 00 00 00 00 8D</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>手抓抓持控制</t>
+    <t>A5 83 00 00 08 00 88 00 00 00 00 00 B8</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 81 00 00 63 5A 6E 00 00 00 00 00 51</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2403,6 +2431,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2412,15 +2473,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2433,36 +2485,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2477,9 +2508,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2944,8 +2972,8 @@
   </sheetPr>
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2964,15 +2992,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3019,7 +3047,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="78">
+      <c r="A4" s="70">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -3037,12 +3065,12 @@
       <c r="F4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="79" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
@@ -3058,478 +3086,478 @@
       <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="69"/>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="83">
+      <c r="A6" s="72">
         <v>3</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="77">
+      <c r="D6" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="74">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="G6" s="81" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="83"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="73"/>
+      <c r="G7" s="81"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="73"/>
+      <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="83"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="73"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="83"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
       <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="73"/>
+      <c r="G10" s="81"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="83"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="73"/>
+      <c r="G11" s="81"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="83"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="73"/>
+      <c r="G12" s="81"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="83"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="73"/>
+      <c r="G13" s="81"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="83">
+      <c r="A14" s="72">
         <v>4</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="77">
+      <c r="D14" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="74">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="81" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="83"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="73"/>
+      <c r="G15" s="81"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="83"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="73"/>
+      <c r="G16" s="81"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="83"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="73"/>
+      <c r="G17" s="81"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="83"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="73"/>
+      <c r="G18" s="81"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="83"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="73"/>
+      <c r="G19" s="81"/>
     </row>
     <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="83"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="73"/>
+      <c r="G20" s="81"/>
     </row>
     <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="83"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="73"/>
+      <c r="G21" s="81"/>
     </row>
     <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="78">
+      <c r="A22" s="70">
         <v>5</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="70">
+      <c r="D22" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="75">
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="82" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="84"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
       <c r="F23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="75"/>
+      <c r="G23" s="83"/>
     </row>
     <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="84"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="75"/>
+      <c r="G24" s="83"/>
     </row>
     <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="84"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
       <c r="F25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="75"/>
+      <c r="G25" s="83"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="84"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="75"/>
+      <c r="G26" s="83"/>
     </row>
     <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="79"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="76"/>
+      <c r="G27" s="84"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="78">
+      <c r="A28" s="70">
         <v>6</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="70">
+      <c r="D28" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="75">
         <v>1</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="74" t="s">
+      <c r="G28" s="82" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="84"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
       <c r="F29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="75"/>
+      <c r="G29" s="83"/>
     </row>
     <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="84"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="75"/>
+      <c r="G30" s="83"/>
     </row>
     <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="84"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
       <c r="F31" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="75"/>
+      <c r="G31" s="83"/>
     </row>
     <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="84"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="75"/>
+      <c r="G32" s="83"/>
     </row>
     <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="79"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
       <c r="F33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="76"/>
+      <c r="G33" s="84"/>
     </row>
     <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="78">
+      <c r="A34" s="70">
         <v>7</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="70">
+      <c r="D34" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="75">
         <v>1</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="74" t="s">
+      <c r="G34" s="82" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="84"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
       <c r="F35" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="75"/>
+      <c r="G35" s="83"/>
     </row>
     <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="84"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
       <c r="F36" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="75"/>
+      <c r="G36" s="83"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="84"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
       <c r="F37" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="75"/>
+      <c r="G37" s="83"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="84"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
       <c r="F38" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="75"/>
+      <c r="G38" s="83"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="84"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
       <c r="F39" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="75"/>
+      <c r="G39" s="83"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="84"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
       <c r="F40" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="75"/>
+      <c r="G40" s="83"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="79"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
       <c r="F41" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G41" s="76"/>
+      <c r="G41" s="84"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="78">
+      <c r="A42" s="70">
         <v>8</v>
       </c>
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C42" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="70">
+      <c r="D42" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="75">
         <v>1</v>
       </c>
       <c r="F42" s="7" t="s">
@@ -3540,11 +3568,11 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="84"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
       <c r="F43" s="7" t="s">
         <v>87</v>
       </c>
@@ -3553,11 +3581,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="84"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
       <c r="F44" s="7" t="s">
         <v>88</v>
       </c>
@@ -3566,11 +3594,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="84"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
       <c r="F45" s="7" t="s">
         <v>89</v>
       </c>
@@ -3579,11 +3607,11 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="84"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
       <c r="F46" s="7" t="s">
         <v>90</v>
       </c>
@@ -3592,11 +3620,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="84"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
       <c r="F47" s="7" t="s">
         <v>92</v>
       </c>
@@ -3605,11 +3633,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="79"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
       <c r="F48" s="7" t="s">
         <v>94</v>
       </c>
@@ -3634,7 +3662,7 @@
       <c r="F49" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G49" s="67" t="s">
+      <c r="G49" s="78" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3657,7 +3685,7 @@
       <c r="F50" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G50" s="67"/>
+      <c r="G50" s="78"/>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
@@ -3678,7 +3706,7 @@
       <c r="F51" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="67" t="s">
+      <c r="G51" s="78" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3701,7 +3729,7 @@
       <c r="F52" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G52" s="67"/>
+      <c r="G52" s="78"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
@@ -3816,15 +3844,15 @@
       <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="80" t="s">
+      <c r="A61" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="82"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="69"/>
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
@@ -3871,7 +3899,7 @@
       <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="78">
+      <c r="A64" s="70">
         <v>2</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -3889,12 +3917,12 @@
       <c r="F64" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="68" t="s">
+      <c r="G64" s="79" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="79"/>
+      <c r="A65" s="71"/>
       <c r="B65" s="6" t="s">
         <v>32</v>
       </c>
@@ -3910,7 +3938,7 @@
       <c r="F65" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G65" s="69"/>
+      <c r="G65" s="80"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
@@ -4306,6 +4334,33 @@
     <row r="89" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G13"/>
+    <mergeCell ref="G14:G21"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="G34:G41"/>
+    <mergeCell ref="E6:E13"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="E34:E41"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B42:B48"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A61:G61"/>
     <mergeCell ref="A4:A5"/>
@@ -4322,33 +4377,6 @@
     <mergeCell ref="C34:C41"/>
     <mergeCell ref="C42:C48"/>
     <mergeCell ref="D6:D13"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G13"/>
-    <mergeCell ref="G14:G21"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="G34:G41"/>
-    <mergeCell ref="E6:E13"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E34:E41"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4387,12 +4415,12 @@
       <c r="A1" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -4439,7 +4467,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="78">
+      <c r="A4" s="70">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -4462,7 +4490,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
@@ -4478,7 +4506,7 @@
       <c r="F5" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="69"/>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
@@ -4645,7 +4673,7 @@
         <v>120</v>
       </c>
       <c r="G13" s="58" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -4796,7 +4824,7 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="G28" sqref="G28:G29"/>
     </sheetView>
   </sheetViews>
@@ -4815,15 +4843,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -4870,7 +4898,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="78">
+      <c r="A4" s="70">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -4879,10 +4907,10 @@
       <c r="C4" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="70">
+      <c r="D4" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="75">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -4891,15 +4919,15 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="84"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="7" t="s">
         <v>189</v>
       </c>
@@ -4908,36 +4936,36 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A6" s="84"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="G6" s="87" t="s">
+      <c r="G6" s="88" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A7" s="84"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="11" t="s">
         <v>193</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="88"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
@@ -4986,7 +5014,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="78">
+      <c r="A10" s="70">
         <v>5</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -4995,36 +5023,36 @@
       <c r="C10" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="70">
+      <c r="D10" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="75">
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G10" s="89" t="s">
+      <c r="G10" s="90" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="79"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G11" s="90"/>
+      <c r="G11" s="91"/>
     </row>
     <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="84">
+      <c r="A12" s="73">
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -5033,36 +5061,36 @@
       <c r="C12" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D12" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="71">
+      <c r="D12" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="76">
         <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G12" s="91" t="s">
+      <c r="G12" s="92" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="79"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G13" s="90"/>
+      <c r="G13" s="91"/>
     </row>
     <row r="14" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="84">
+      <c r="A14" s="73">
         <v>7</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -5071,36 +5099,36 @@
       <c r="C14" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D14" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="71">
+      <c r="D14" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="76">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G14" s="91" t="s">
+      <c r="G14" s="92" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="79"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="13" t="s">
         <v>215</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G15" s="90"/>
+      <c r="G15" s="91"/>
     </row>
     <row r="16" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="84">
+      <c r="A16" s="73">
         <v>8</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -5109,33 +5137,33 @@
       <c r="C16" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="71">
+      <c r="D16" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="76">
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G16" s="91" t="s">
+      <c r="G16" s="92" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="79"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="13" t="s">
         <v>221</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G17" s="90"/>
+      <c r="G17" s="91"/>
     </row>
     <row r="18" spans="1:7" ht="66" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
@@ -5161,7 +5189,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A19" s="78">
+      <c r="A19" s="70">
         <v>10</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -5170,36 +5198,36 @@
       <c r="C19" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D19" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="70">
+      <c r="D19" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="75">
         <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G19" s="89" t="s">
+      <c r="G19" s="90" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A20" s="79"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="13" t="s">
         <v>230</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
       <c r="F20" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G20" s="90"/>
+      <c r="G20" s="91"/>
     </row>
     <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A21" s="84">
+      <c r="A21" s="73">
         <v>11</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -5208,107 +5236,107 @@
       <c r="C21" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="71">
+      <c r="D21" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="76">
         <v>1</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G21" s="91" t="s">
+      <c r="G21" s="92" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A22" s="84"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G22" s="91"/>
+      <c r="G22" s="92"/>
     </row>
     <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A23" s="84"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="13" t="s">
         <v>238</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
       <c r="F23" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G23" s="91"/>
+      <c r="G23" s="92"/>
     </row>
     <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A24" s="84"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="13" t="s">
         <v>241</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G24" s="91"/>
+      <c r="G24" s="92"/>
     </row>
     <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A25" s="84"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="13" t="s">
         <v>244</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
       <c r="F25" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G25" s="91"/>
+      <c r="G25" s="92"/>
     </row>
     <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A26" s="84"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="13" t="s">
         <v>247</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G26" s="91"/>
+      <c r="G26" s="92"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="79"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="13"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G27" s="90"/>
+      <c r="G27" s="91"/>
     </row>
     <row r="28" spans="1:7" ht="198" x14ac:dyDescent="0.15">
-      <c r="A28" s="78">
+      <c r="A28" s="70">
         <v>12</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -5317,33 +5345,33 @@
       <c r="C28" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D28" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="70">
+      <c r="D28" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="75">
         <v>1</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G28" s="89" t="s">
+      <c r="G28" s="90" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A29" s="79"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="14" t="s">
         <v>254</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
       <c r="F29" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="G29" s="91"/>
+      <c r="G29" s="92"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="16">
@@ -5390,15 +5418,18 @@
     <row r="41" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="G28:G29"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A27"/>
@@ -5411,18 +5442,15 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D27"/>
     <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G27"/>
-    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5436,11 +5464,11 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5451,7 +5479,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -5473,7 +5501,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B4" s="51" t="s">
         <v>260</v>
@@ -5652,7 +5680,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="93" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B37" s="94"/>
     </row>
@@ -5661,11 +5689,58 @@
         <v>302</v>
       </c>
     </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="93" t="s">
+        <v>308</v>
+      </c>
+      <c r="B48" s="94"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01-系统设计/通信协议/XBOT510高端控制盒通讯协议201700407.xlsx
+++ b/01-系统设计/通信协议/XBOT510高端控制盒通讯协议201700407.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="320">
   <si>
     <t>XBOT510高端控制盒通信协议集</t>
   </si>
@@ -1708,6 +1708,21 @@
   </si>
   <si>
     <t>A5 81 00 00 63 5A 6E 00 00 00 00 00 51</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 00 00 00 00 00 00 00 0F 00 E0 80 14</t>
+  </si>
+  <si>
+    <t>控制器-&gt;机器人</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 00 00 00 00 80 00 00 0F 00 00 81 B5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 00 00 00 00 00 00 00 0F 00 00 82 36</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2972,8 +2987,8 @@
   </sheetPr>
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4394,7 +4409,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5464,11 +5479,11 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5695,52 +5710,74 @@
       </c>
       <c r="B48" s="94"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>314</v>
       </c>
     </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="93" t="s">
+        <v>317</v>
+      </c>
+      <c r="B58" s="94"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="54" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A58:B58"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
